--- a/DCIT 65 - IT 3D/POINTS - IT 3D.xlsx
+++ b/DCIT 65 - IT 3D/POINTS - IT 3D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 65 - IT 3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 65 - IT 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE3995F-5AC9-45EE-A78B-96F1567CC55F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FB01A0-92DA-408A-8B5A-BF49AAF8A86F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="179">
   <si>
     <t>C</t>
   </si>
@@ -550,13 +550,22 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1068,6 +1077,9 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1653,14 +1665,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1670,7 +1682,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -1721,8 +1733,15 @@
       <c r="AL1" s="53"/>
       <c r="AM1" s="53"/>
       <c r="AN1" s="53"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO1" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="70">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="71"/>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1841,8 +1860,17 @@
       <c r="AN2" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP2" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ2" s="70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1909,9 +1937,22 @@
         <v>0</v>
       </c>
       <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN3" s="32">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="72">
+        <f t="shared" ref="AO3:AO46" si="0">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>60</v>
+      </c>
+      <c r="AP3" s="72">
+        <f t="shared" ref="AP3:AP8" si="1">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -1966,21 +2007,34 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="32">
-        <f t="shared" ref="AJ4:AJ19" si="0">SUM(F4:AI4)</f>
+        <f t="shared" ref="AJ4:AJ19" si="2">SUM(F4:AI4)</f>
         <v>91</v>
       </c>
       <c r="AK4" s="32">
-        <f t="shared" ref="AK4:AK22" si="1">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f t="shared" ref="AK4:AK22" si="3">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
         <v>91</v>
       </c>
       <c r="AL4" s="32">
-        <f t="shared" ref="AL4:AL67" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f t="shared" ref="AL4:AL67" si="4">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN4" s="32">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="72">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="AP4" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="11" t="s">
         <v>74</v>
       </c>
@@ -2035,21 +2089,34 @@
       <c r="AH5" s="30"/>
       <c r="AI5" s="30"/>
       <c r="AJ5" s="32">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="AK5" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL5" s="32">
+        <f t="shared" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32">
+        <v>62</v>
+      </c>
+      <c r="AO5" s="72">
         <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="AK5" s="32">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AP5" s="72">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL5" s="32">
-        <f t="shared" si="2"/>
-        <v>3.1</v>
-      </c>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -2104,21 +2171,34 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="32">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="AK6" s="32">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="AL6" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32">
+        <v>67</v>
+      </c>
+      <c r="AO6" s="72">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="AK6" s="32">
+        <v>67</v>
+      </c>
+      <c r="AP6" s="72">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="AL6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -2175,21 +2255,34 @@
       <c r="AH7" s="30"/>
       <c r="AI7" s="30"/>
       <c r="AJ7" s="32">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="AK7" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL7" s="32">
+        <f t="shared" si="4"/>
+        <v>10.9</v>
+      </c>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32">
+        <v>71</v>
+      </c>
+      <c r="AO7" s="72">
         <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="AK7" s="32">
+        <v>80</v>
+      </c>
+      <c r="AP7" s="72">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL7" s="32">
-        <f t="shared" si="2"/>
-        <v>10.9</v>
-      </c>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="AQ7" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -2244,21 +2337,34 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="32">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="AK8" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL8" s="32">
+        <f t="shared" si="4"/>
+        <v>1.9</v>
+      </c>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32">
+        <v>68</v>
+      </c>
+      <c r="AO8" s="72">
         <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="AK8" s="32">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AP8" s="72">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL8" s="32">
-        <f t="shared" si="2"/>
-        <v>1.9</v>
-      </c>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -2315,21 +2421,33 @@
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
       <c r="AJ9" s="32">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="AK9" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL9" s="32">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32">
+        <v>56</v>
+      </c>
+      <c r="AO9" s="72">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="AK9" s="32">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL9" s="32">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+        <v>57.1</v>
+      </c>
+      <c r="AP9" s="72">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
@@ -2384,21 +2502,34 @@
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="32">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="AK10" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL10" s="32">
+        <f t="shared" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32">
+        <v>70</v>
+      </c>
+      <c r="AO10" s="72">
         <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="AK10" s="32">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL10" s="32">
-        <f t="shared" si="2"/>
-        <v>3.1</v>
-      </c>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AP10" s="72">
+        <f t="shared" ref="AP10:AP46" si="5">IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="6" t="s">
         <v>93</v>
       </c>
@@ -2453,21 +2584,34 @@
       <c r="AH11" s="30"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="32">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="AK11" s="32">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="AL11" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32">
+        <v>71</v>
+      </c>
+      <c r="AO11" s="72">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="AK11" s="32">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="AL11" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="AP11" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="6" t="s">
         <v>96</v>
       </c>
@@ -2522,21 +2666,32 @@
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="AK12" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL12" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM12" s="32"/>
       <c r="AN12" s="32"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO12" s="72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="6" t="s">
         <v>99</v>
       </c>
@@ -2591,21 +2746,34 @@
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="32">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="AK13" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL13" s="32">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32">
+        <v>71</v>
+      </c>
+      <c r="AO13" s="72">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="AK13" s="32">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL13" s="32">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+        <v>73.5</v>
+      </c>
+      <c r="AP13" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -2660,21 +2828,34 @@
       <c r="AH14" s="30"/>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="32">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AK14" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL14" s="32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32">
+        <v>48</v>
+      </c>
+      <c r="AO14" s="72">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="AK14" s="32">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL14" s="32">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="AP14" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
@@ -2729,21 +2910,34 @@
       <c r="AH15" s="30"/>
       <c r="AI15" s="30"/>
       <c r="AJ15" s="32">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="AK15" s="32">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="AL15" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32">
+        <v>56</v>
+      </c>
+      <c r="AO15" s="72">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="AK15" s="32">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="AL15" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AP15" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
@@ -2798,21 +2992,34 @@
       <c r="AH16" s="30"/>
       <c r="AI16" s="30"/>
       <c r="AJ16" s="32">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AK16" s="32">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="AL16" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32">
+        <v>46</v>
+      </c>
+      <c r="AO16" s="72">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="AK16" s="32">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="AL16" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="AP16" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -2865,21 +3072,34 @@
       <c r="AH17" s="30"/>
       <c r="AI17" s="30"/>
       <c r="AJ17" s="32">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AK17" s="32">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="AL17" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32">
+        <v>63</v>
+      </c>
+      <c r="AO17" s="72">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="AK17" s="32">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="AL17" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="AP17" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="6" t="s">
         <v>115</v>
       </c>
@@ -2934,21 +3154,34 @@
       <c r="AH18" s="30"/>
       <c r="AI18" s="30"/>
       <c r="AJ18" s="32">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="AK18" s="32">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="AL18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32">
+        <v>53</v>
+      </c>
+      <c r="AO18" s="72">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="AK18" s="32">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="AL18" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-    </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AP18" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>118</v>
       </c>
@@ -3001,21 +3234,34 @@
       <c r="AH19" s="30"/>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AK19" s="32">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="AL19" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32">
+        <v>74</v>
+      </c>
+      <c r="AO19" s="72">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AK19" s="32">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="AL19" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AP19" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
@@ -3074,17 +3320,30 @@
         <v>105</v>
       </c>
       <c r="AK20" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL20" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN20" s="32">
+        <v>68</v>
+      </c>
+      <c r="AO20" s="72">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="AP20" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="11" t="s">
         <v>124</v>
       </c>
@@ -3141,21 +3400,34 @@
       <c r="AH21" s="30"/>
       <c r="AI21" s="30"/>
       <c r="AJ21" s="32">
-        <f t="shared" ref="AJ21:AJ22" si="3">SUM(F21:AI21)</f>
+        <f t="shared" ref="AJ21:AJ22" si="6">SUM(F21:AI21)</f>
         <v>99</v>
       </c>
       <c r="AK21" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="AL21" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN21" s="32">
+        <v>53</v>
+      </c>
+      <c r="AO21" s="72">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AP21" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="6" t="s">
         <v>127</v>
       </c>
@@ -3210,21 +3482,34 @@
       <c r="AH22" s="30"/>
       <c r="AI22" s="30"/>
       <c r="AJ22" s="32">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="AK22" s="32">
         <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="AK22" s="32">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN22" s="32">
+        <v>66</v>
+      </c>
+      <c r="AO22" s="72">
+        <f t="shared" si="0"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AP22" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>130</v>
@@ -3277,21 +3562,34 @@
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="32">
-        <f t="shared" ref="AJ23:AJ33" si="4">SUM(F23:AI23)</f>
+        <f t="shared" ref="AJ23:AJ33" si="7">SUM(F23:AI23)</f>
         <v>209</v>
       </c>
       <c r="AK23" s="32">
-        <f t="shared" ref="AK23:AK33" si="5">IF(AJ23&gt;100,AJ23-(AJ23-100),AJ23)</f>
+        <f t="shared" ref="AK23:AK33" si="8">IF(AJ23&gt;100,AJ23-(AJ23-100),AJ23)</f>
         <v>100</v>
       </c>
       <c r="AL23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.9</v>
       </c>
       <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN23" s="32">
+        <v>52</v>
+      </c>
+      <c r="AO23" s="72">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="AP23" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3346,21 +3644,34 @@
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="32">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="AK24" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL24" s="32">
         <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-      <c r="AK24" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32">
+        <v>60</v>
+      </c>
+      <c r="AO24" s="72">
+        <f t="shared" si="0"/>
+        <v>62.4</v>
+      </c>
+      <c r="AP24" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL24" s="32">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
-      </c>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="51" t="s">
         <v>169</v>
       </c>
@@ -3415,21 +3726,34 @@
       <c r="AH25" s="30"/>
       <c r="AI25" s="30"/>
       <c r="AJ25" s="32">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="AK25" s="32">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="AL25" s="32">
         <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="AK25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32">
+        <v>59</v>
+      </c>
+      <c r="AO25" s="72">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AP25" s="72">
         <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="AL25" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -3486,21 +3810,34 @@
       <c r="AH26" s="30"/>
       <c r="AI26" s="30"/>
       <c r="AJ26" s="32">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+      <c r="AK26" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL26" s="32">
         <f t="shared" si="4"/>
-        <v>197</v>
-      </c>
-      <c r="AK26" s="32">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32">
+        <v>57</v>
+      </c>
+      <c r="AO26" s="72">
+        <f t="shared" si="0"/>
+        <v>66.7</v>
+      </c>
+      <c r="AP26" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL26" s="32">
-        <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="6" t="s">
         <v>141</v>
       </c>
@@ -3555,21 +3892,34 @@
       <c r="AH27" s="30"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="32">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="AK27" s="32">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="AL27" s="32">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="AK27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32">
+        <v>59</v>
+      </c>
+      <c r="AO27" s="72">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AP27" s="72">
         <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="AL27" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="6" t="s">
         <v>144</v>
       </c>
@@ -3626,21 +3976,34 @@
       <c r="AH28" s="30"/>
       <c r="AI28" s="30"/>
       <c r="AJ28" s="32">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="AK28" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL28" s="32">
         <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-      <c r="AK28" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32">
+        <v>66</v>
+      </c>
+      <c r="AO28" s="72">
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+      <c r="AP28" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL28" s="32">
-        <f t="shared" si="2"/>
-        <v>3.3</v>
-      </c>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="6" t="s">
         <v>147</v>
       </c>
@@ -3695,21 +4058,34 @@
       <c r="AH29" s="30"/>
       <c r="AI29" s="30"/>
       <c r="AJ29" s="32">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="AK29" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL29" s="32">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="AK29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32">
+        <v>66</v>
+      </c>
+      <c r="AO29" s="72">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="AP29" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL29" s="32">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="22"/>
       <c r="B30" s="22" t="s">
         <v>166</v>
@@ -3762,21 +4138,34 @@
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="32">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="AK30" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL30" s="32">
         <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-      <c r="AK30" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32">
+        <v>72</v>
+      </c>
+      <c r="AO30" s="72">
+        <f t="shared" si="0"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AP30" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL30" s="32">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
-      </c>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="6" t="s">
         <v>150</v>
       </c>
@@ -3831,21 +4220,34 @@
       <c r="AH31" s="30"/>
       <c r="AI31" s="30"/>
       <c r="AJ31" s="32">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AK31" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL31" s="32">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AK31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32">
+        <v>56</v>
+      </c>
+      <c r="AO31" s="72">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AP31" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL31" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="6" t="s">
         <v>153</v>
       </c>
@@ -3902,21 +4304,34 @@
       <c r="AH32" s="30"/>
       <c r="AI32" s="30"/>
       <c r="AJ32" s="32">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="AK32" s="32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL32" s="32">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AK32" s="32">
+        <v>10</v>
+      </c>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32">
+        <v>52</v>
+      </c>
+      <c r="AO32" s="72">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="AP32" s="72">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL32" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="51" t="s">
         <v>170</v>
       </c>
@@ -3969,21 +4384,34 @@
       <c r="AH33" s="30"/>
       <c r="AI33" s="30"/>
       <c r="AJ33" s="32">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="AK33" s="32">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="AL33" s="32">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="AK33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32">
+        <v>56</v>
+      </c>
+      <c r="AO33" s="72">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AP33" s="72">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AL33" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -4038,21 +4466,34 @@
       <c r="AH34" s="30"/>
       <c r="AI34" s="30"/>
       <c r="AJ34" s="32">
-        <f t="shared" ref="AJ34:AJ60" si="6">SUM(F34:AI34)</f>
+        <f t="shared" ref="AJ34:AJ60" si="9">SUM(F34:AI34)</f>
         <v>145</v>
       </c>
       <c r="AK34" s="32">
-        <f t="shared" ref="AK34:AK60" si="7">IF(AJ34&gt;100,AJ34-(AJ34-100),AJ34)</f>
+        <f t="shared" ref="AK34:AK60" si="10">IF(AJ34&gt;100,AJ34-(AJ34-100),AJ34)</f>
         <v>100</v>
       </c>
       <c r="AL34" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN34" s="32">
+        <v>73</v>
+      </c>
+      <c r="AO34" s="72">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="AP34" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="6" t="s">
         <v>162</v>
       </c>
@@ -4107,21 +4548,34 @@
       <c r="AH35" s="30"/>
       <c r="AI35" s="30"/>
       <c r="AJ35" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="AK35" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AL35" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN35" s="32">
+        <v>53</v>
+      </c>
+      <c r="AO35" s="72">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AP35" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4158,21 +4612,32 @@
       <c r="AH36" s="30"/>
       <c r="AI36" s="30"/>
       <c r="AJ36" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK36" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL36" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM36" s="32"/>
       <c r="AN36" s="32"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO36" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -4209,21 +4674,32 @@
       <c r="AH37" s="30"/>
       <c r="AI37" s="30"/>
       <c r="AJ37" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK37" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL37" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM37" s="32"/>
       <c r="AN37" s="32"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO37" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -4260,21 +4736,32 @@
       <c r="AH38" s="30"/>
       <c r="AI38" s="30"/>
       <c r="AJ38" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK38" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL38" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM38" s="32"/>
       <c r="AN38" s="32"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO38" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -4311,21 +4798,32 @@
       <c r="AH39" s="30"/>
       <c r="AI39" s="30"/>
       <c r="AJ39" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK39" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL39" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM39" s="32"/>
       <c r="AN39" s="32"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO39" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -4362,21 +4860,32 @@
       <c r="AH40" s="30"/>
       <c r="AI40" s="30"/>
       <c r="AJ40" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK40" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL40" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM40" s="32"/>
       <c r="AN40" s="32"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO40" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -4413,21 +4922,32 @@
       <c r="AH41" s="30"/>
       <c r="AI41" s="30"/>
       <c r="AJ41" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK41" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL41" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM41" s="32"/>
       <c r="AN41" s="32"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO41" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -4464,21 +4984,32 @@
       <c r="AH42" s="30"/>
       <c r="AI42" s="30"/>
       <c r="AJ42" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK42" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL42" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM42" s="32"/>
       <c r="AN42" s="32"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO42" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -4515,21 +5046,32 @@
       <c r="AH43" s="30"/>
       <c r="AI43" s="30"/>
       <c r="AJ43" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK43" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL43" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM43" s="32"/>
       <c r="AN43" s="32"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO43" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -4566,21 +5108,32 @@
       <c r="AH44" s="30"/>
       <c r="AI44" s="30"/>
       <c r="AJ44" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK44" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL44" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM44" s="32"/>
       <c r="AN44" s="32"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO44" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -4617,21 +5170,32 @@
       <c r="AH45" s="30"/>
       <c r="AI45" s="30"/>
       <c r="AJ45" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK45" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL45" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM45" s="32"/>
       <c r="AN45" s="32"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO45" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -4668,21 +5232,32 @@
       <c r="AH46" s="30"/>
       <c r="AI46" s="30"/>
       <c r="AJ46" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK46" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL46" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM46" s="32"/>
       <c r="AN46" s="32"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO46" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4719,21 +5294,21 @@
       <c r="AH47" s="30"/>
       <c r="AI47" s="30"/>
       <c r="AJ47" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK47" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL47" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM47" s="32"/>
       <c r="AN47" s="32"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -4770,21 +5345,21 @@
       <c r="AH48" s="30"/>
       <c r="AI48" s="30"/>
       <c r="AJ48" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK48" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL48" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM48" s="32"/>
       <c r="AN48" s="32"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4821,21 +5396,21 @@
       <c r="AH49" s="30"/>
       <c r="AI49" s="30"/>
       <c r="AJ49" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK49" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL49" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM49" s="32"/>
       <c r="AN49" s="32"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4872,21 +5447,21 @@
       <c r="AH50" s="30"/>
       <c r="AI50" s="30"/>
       <c r="AJ50" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK50" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL50" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM50" s="32"/>
       <c r="AN50" s="32"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -4923,21 +5498,21 @@
       <c r="AH51" s="30"/>
       <c r="AI51" s="30"/>
       <c r="AJ51" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK51" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL51" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM51" s="32"/>
       <c r="AN51" s="32"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -4974,21 +5549,21 @@
       <c r="AH52" s="30"/>
       <c r="AI52" s="30"/>
       <c r="AJ52" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK52" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL52" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM52" s="32"/>
       <c r="AN52" s="32"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -5025,21 +5600,21 @@
       <c r="AH53" s="30"/>
       <c r="AI53" s="30"/>
       <c r="AJ53" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK53" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL53" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM53" s="32"/>
       <c r="AN53" s="32"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -5076,21 +5651,21 @@
       <c r="AH54" s="30"/>
       <c r="AI54" s="30"/>
       <c r="AJ54" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK54" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL54" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM54" s="32"/>
       <c r="AN54" s="32"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -5127,21 +5702,21 @@
       <c r="AH55" s="30"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK55" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL55" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM55" s="32"/>
       <c r="AN55" s="32"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -5178,21 +5753,21 @@
       <c r="AH56" s="30"/>
       <c r="AI56" s="30"/>
       <c r="AJ56" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK56" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL56" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM56" s="32"/>
       <c r="AN56" s="32"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5229,21 +5804,21 @@
       <c r="AH57" s="30"/>
       <c r="AI57" s="30"/>
       <c r="AJ57" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK57" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL57" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM57" s="32"/>
       <c r="AN57" s="32"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5280,21 +5855,21 @@
       <c r="AH58" s="30"/>
       <c r="AI58" s="30"/>
       <c r="AJ58" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK58" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL58" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM58" s="32"/>
       <c r="AN58" s="32"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5331,21 +5906,21 @@
       <c r="AH59" s="30"/>
       <c r="AI59" s="30"/>
       <c r="AJ59" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK59" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL59" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM59" s="32"/>
       <c r="AN59" s="32"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5382,59 +5957,59 @@
       <c r="AH60" s="30"/>
       <c r="AI60" s="30"/>
       <c r="AJ60" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK60" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL60" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM60" s="32"/>
       <c r="AN60" s="32"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="AL61" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="AL62" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
       <c r="AL63" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
       <c r="AL64" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="38:38">
       <c r="AL65" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="38:38">
       <c r="AL66" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="38:38" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="38:38">
       <c r="AL67" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5493,7 +6068,7 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -5503,7 +6078,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
@@ -5557,7 +6132,7 @@
       <c r="AM1" s="60"/>
       <c r="AN1" s="60"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -5637,7 +6212,7 @@
       <c r="AM2" s="34"/>
       <c r="AN2" s="34"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -5695,7 +6270,7 @@
       <c r="AM3" s="37"/>
       <c r="AN3" s="37"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -5751,7 +6326,7 @@
       <c r="AM4" s="37"/>
       <c r="AN4" s="37"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>74</v>
       </c>
@@ -5809,7 +6384,7 @@
       <c r="AM5" s="37"/>
       <c r="AN5" s="37"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -5865,7 +6440,7 @@
       <c r="AM6" s="37"/>
       <c r="AN6" s="37"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -5923,7 +6498,7 @@
       <c r="AM7" s="37"/>
       <c r="AN7" s="37"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -5981,7 +6556,7 @@
       <c r="AM8" s="37"/>
       <c r="AN8" s="37"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -6039,7 +6614,7 @@
       <c r="AM9" s="37"/>
       <c r="AN9" s="37"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
@@ -6097,7 +6672,7 @@
       <c r="AM10" s="37"/>
       <c r="AN10" s="37"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>93</v>
       </c>
@@ -6155,7 +6730,7 @@
       <c r="AM11" s="37"/>
       <c r="AN11" s="37"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>96</v>
       </c>
@@ -6211,7 +6786,7 @@
       <c r="AM12" s="37"/>
       <c r="AN12" s="37"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>99</v>
       </c>
@@ -6269,7 +6844,7 @@
       <c r="AM13" s="37"/>
       <c r="AN13" s="37"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -6325,7 +6900,7 @@
       <c r="AM14" s="37"/>
       <c r="AN14" s="37"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
@@ -6383,7 +6958,7 @@
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
@@ -6439,7 +7014,7 @@
       <c r="AM16" s="37"/>
       <c r="AN16" s="37"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -6497,7 +7072,7 @@
       <c r="AM17" s="37"/>
       <c r="AN17" s="37"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>115</v>
       </c>
@@ -6555,7 +7130,7 @@
       <c r="AM18" s="37"/>
       <c r="AN18" s="37"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>118</v>
       </c>
@@ -6613,7 +7188,7 @@
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
@@ -6671,7 +7246,7 @@
       <c r="AM20" s="37"/>
       <c r="AN20" s="37"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="11" t="s">
         <v>124</v>
       </c>
@@ -6729,7 +7304,7 @@
       <c r="AM21" s="37"/>
       <c r="AN21" s="37"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6" t="s">
         <v>127</v>
       </c>
@@ -6787,7 +7362,7 @@
       <c r="AM22" s="37"/>
       <c r="AN22" s="37"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="6" t="s">
         <v>172</v>
       </c>
@@ -6843,7 +7418,7 @@
       <c r="AM23" s="37"/>
       <c r="AN23" s="37"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -6901,7 +7476,7 @@
       <c r="AM24" s="37"/>
       <c r="AN24" s="37"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="51" t="s">
         <v>169</v>
       </c>
@@ -6959,7 +7534,7 @@
       <c r="AM25" s="37"/>
       <c r="AN25" s="37"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -7015,7 +7590,7 @@
       <c r="AM26" s="37"/>
       <c r="AN26" s="37"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="6" t="s">
         <v>141</v>
       </c>
@@ -7073,7 +7648,7 @@
       <c r="AM27" s="37"/>
       <c r="AN27" s="37"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="6" t="s">
         <v>144</v>
       </c>
@@ -7129,7 +7704,7 @@
       <c r="AM28" s="37"/>
       <c r="AN28" s="37"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="6" t="s">
         <v>147</v>
       </c>
@@ -7187,7 +7762,7 @@
       <c r="AM29" s="37"/>
       <c r="AN29" s="37"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22" t="s">
         <v>171</v>
       </c>
@@ -7243,7 +7818,7 @@
       <c r="AM30" s="37"/>
       <c r="AN30" s="37"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="6" t="s">
         <v>150</v>
       </c>
@@ -7299,7 +7874,7 @@
       <c r="AM31" s="37"/>
       <c r="AN31" s="37"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="6" t="s">
         <v>153</v>
       </c>
@@ -7357,7 +7932,7 @@
       <c r="AM32" s="37"/>
       <c r="AN32" s="37"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="51" t="s">
         <v>170</v>
       </c>
@@ -7409,7 +7984,7 @@
       <c r="AM33" s="37"/>
       <c r="AN33" s="37"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -7465,7 +8040,7 @@
       <c r="AM34" s="37"/>
       <c r="AN34" s="37"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="6" t="s">
         <v>162</v>
       </c>
@@ -7521,7 +8096,7 @@
       <c r="AM35" s="37"/>
       <c r="AN35" s="37"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -7563,7 +8138,7 @@
       <c r="AM36" s="37"/>
       <c r="AN36" s="37"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -7605,7 +8180,7 @@
       <c r="AM37" s="37"/>
       <c r="AN37" s="37"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -7647,7 +8222,7 @@
       <c r="AM38" s="37"/>
       <c r="AN38" s="37"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -7689,7 +8264,7 @@
       <c r="AM39" s="37"/>
       <c r="AN39" s="37"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -7731,7 +8306,7 @@
       <c r="AM40" s="37"/>
       <c r="AN40" s="37"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -7773,7 +8348,7 @@
       <c r="AM41" s="37"/>
       <c r="AN41" s="37"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -7815,7 +8390,7 @@
       <c r="AM42" s="37"/>
       <c r="AN42" s="37"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -7857,7 +8432,7 @@
       <c r="AM43" s="37"/>
       <c r="AN43" s="37"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -7899,7 +8474,7 @@
       <c r="AM44" s="37"/>
       <c r="AN44" s="37"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -7941,7 +8516,7 @@
       <c r="AM45" s="37"/>
       <c r="AN45" s="37"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -7983,7 +8558,7 @@
       <c r="AM46" s="37"/>
       <c r="AN46" s="37"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8025,7 +8600,7 @@
       <c r="AM47" s="37"/>
       <c r="AN47" s="37"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8067,7 +8642,7 @@
       <c r="AM48" s="37"/>
       <c r="AN48" s="37"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8109,7 +8684,7 @@
       <c r="AM49" s="37"/>
       <c r="AN49" s="37"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -8151,7 +8726,7 @@
       <c r="AM50" s="37"/>
       <c r="AN50" s="37"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -8193,7 +8768,7 @@
       <c r="AM51" s="37"/>
       <c r="AN51" s="37"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -8235,7 +8810,7 @@
       <c r="AM52" s="37"/>
       <c r="AN52" s="37"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -8277,7 +8852,7 @@
       <c r="AM53" s="37"/>
       <c r="AN53" s="37"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -8319,7 +8894,7 @@
       <c r="AM54" s="37"/>
       <c r="AN54" s="37"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -8361,7 +8936,7 @@
       <c r="AM55" s="37"/>
       <c r="AN55" s="37"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8403,7 +8978,7 @@
       <c r="AM56" s="37"/>
       <c r="AN56" s="37"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8445,7 +9020,7 @@
       <c r="AM57" s="37"/>
       <c r="AN57" s="37"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8487,7 +9062,7 @@
       <c r="AM58" s="37"/>
       <c r="AN58" s="37"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8529,7 +9104,7 @@
       <c r="AM59" s="37"/>
       <c r="AN59" s="37"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -8571,7 +9146,7 @@
       <c r="AM60" s="37"/>
       <c r="AN60" s="37"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -8670,12 +9245,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -8684,7 +9259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
@@ -8693,7 +9268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -8702,7 +9277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -8711,7 +9286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>138</v>
       </c>
@@ -8720,7 +9295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
@@ -8729,7 +9304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -8738,7 +9313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>96</v>
       </c>
@@ -8747,7 +9322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>147</v>
       </c>
@@ -8756,7 +9331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -8765,7 +9340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>159</v>
       </c>
@@ -8774,7 +9349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="51" t="s">
         <v>169</v>
       </c>
@@ -8785,7 +9360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
@@ -8794,7 +9369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
@@ -8803,7 +9378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="22"/>
       <c r="B16" s="22" t="s">
         <v>166</v>
@@ -8812,7 +9387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -8821,7 +9396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>162</v>
       </c>
@@ -8830,7 +9405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>109</v>
       </c>
@@ -8839,7 +9414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>127</v>
       </c>
@@ -8848,7 +9423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>118</v>
       </c>
@@ -8857,7 +9432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>130</v>
@@ -8866,7 +9441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>87</v>
       </c>
@@ -8875,7 +9450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -8884,7 +9459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -8893,7 +9468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
@@ -8902,7 +9477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="51" t="s">
         <v>170</v>
       </c>
@@ -8913,7 +9488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>83</v>
       </c>
@@ -8922,7 +9497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>121</v>
       </c>
@@ -8931,7 +9506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
         <v>124</v>
       </c>
@@ -8940,7 +9515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>153</v>
       </c>
@@ -8949,7 +9524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>102</v>
       </c>
@@ -8958,7 +9533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -8967,7 +9542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -8976,7 +9551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="50"/>
